--- a/states_empty.xlsx
+++ b/states_empty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_local_cd\trends_api_access\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_local_cd\Trends_Nowcasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D822F1-DB43-45CD-B2EC-6B5BED6B33EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B0EE03-D68A-48B0-BFE6-34CFEB290FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3885" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,466 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
-  <si>
-    <t>gt_premp_mi_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_mi_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_mi_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_nc_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_nc_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_nc_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ut_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ut_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ut_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ca_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ca_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ca_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_la_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_la_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_la_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_al_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_al_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_al_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ak_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ak_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ak_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_az_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_az_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_az_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ar_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ar_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ar_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_co_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_co_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_co_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ct_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ct_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ct_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_de_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_de_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_de_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_dc_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_dc_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_dc_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_fl_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_fl_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_fl_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ga_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ga_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ga_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_hi_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_hi_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_hi_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_id_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_id_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_id_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_il_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_il_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_il_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_in_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_in_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_in_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ia_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ia_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ia_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ks_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ks_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ks_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ky_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ky_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ky_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_me_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_me_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_me_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_md_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_md_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_md_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ma_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ma_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ma_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_mn_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_mn_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_mn_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ms_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ms_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ms_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_mo_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_mo_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_mo_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_mt_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_mt_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_mt_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ne_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ne_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ne_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_nv_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_nv_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_nv_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_nh_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_nh_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_nh_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_nj_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_nj_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_nj_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_nm_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_nm_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_nm_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ny_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ny_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ny_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_nd_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_nd_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_nd_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_oh_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_oh_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_oh_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ok_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ok_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ok_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_or_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_or_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_or_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_pa_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_pa_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_pa_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_ri_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_ri_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_ri_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_sc_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_sc_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_sc_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_sd_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_sd_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_sd_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_tn_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_tn_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_tn_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_tx_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_tx_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_tx_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_vt_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_vt_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_vt_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_va_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_va_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_va_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_wa_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_wa_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_wa_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_wv_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_wv_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_wv_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_wi_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_wi_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_wi_pc3</t>
-  </si>
-  <si>
-    <t>gt_premp_wy_pc1</t>
-  </si>
-  <si>
-    <t>gt_premp_wy_pc2</t>
-  </si>
-  <si>
-    <t>gt_premp_wy_pc3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>2004-01-01</t>
   </si>
@@ -1301,9 +842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1341,7 +882,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1447,7 +988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1589,7 +1130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1659,1664 +1200,1358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
     </row>
     <row r="2" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>215</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>229</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>230</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>238</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>243</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>249</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>256</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>258</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>264</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>273</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>274</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>275</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>276</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>278</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>281</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>282</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>284</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>287</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>288</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>289</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>290</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>292</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>296</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>297</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>299</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>301</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>303</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>304</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>305</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>309</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>311</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>312</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>314</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>315</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>316</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>317</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>318</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>319</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>320</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>321</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>322</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>323</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>324</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>325</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>327</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>328</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>329</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>330</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>331</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>332</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>333</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>334</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>335</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>336</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>337</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>341</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>342</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>343</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>344</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>345</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>346</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>347</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>348</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>350</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>351</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>352</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>353</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>354</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>355</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>356</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>357</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>358</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>359</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>360</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>361</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>362</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>364</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>365</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>366</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>367</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>369</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>370</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>371</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>372</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>373</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>374</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>375</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>378</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>379</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>380</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>382</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>383</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>384</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>385</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>386</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>387</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>388</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>389</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>390</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>391</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>392</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
